--- a/09_characterizationRheology/solutionsNrheology.xlsx
+++ b/09_characterizationRheology/solutionsNrheology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\9_characterizationRheology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_Thesis/09_characterizationRheology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD1BFA-1E8E-4494-9D27-1C99BF766C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{F486458C-7FBD-48EA-BCAA-1067CC158AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{955C02EF-7B9A-448A-B641-1124BED266CE}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="21225" windowHeight="14865" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="7575" yWindow="885" windowWidth="21225" windowHeight="14865" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +577,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -600,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -831,6 +843,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2073,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:AB187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2135,7 @@
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="71"/>
       <c r="C2" s="71">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
@@ -2178,11 +2196,11 @@
       </c>
       <c r="D4" s="83">
         <f>E4*$D$13</f>
-        <v>1684.5</v>
+        <v>2807.5</v>
       </c>
       <c r="E4" s="97">
         <f>$C$2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F4" s="84">
         <f>(D4*C4)/(100-C4)</f>
@@ -2222,15 +2240,15 @@
       </c>
       <c r="D5" s="83">
         <f>E5*$D$13</f>
-        <v>1684.5</v>
+        <v>2807.5</v>
       </c>
       <c r="E5" s="97">
         <f>$C$2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F5" s="84">
         <f>(D5*C5)/(100-C5)</f>
-        <v>1.684516845168452E-2</v>
+        <v>2.8075280752807529E-2</v>
       </c>
       <c r="G5" s="84">
         <v>12.28</v>
@@ -2254,15 +2272,15 @@
       </c>
       <c r="D6" s="83">
         <f t="shared" ref="D6:D11" si="0">E6*$D$13</f>
-        <v>1684.5</v>
+        <v>2807.5</v>
       </c>
       <c r="E6" s="97">
         <f t="shared" ref="E6:E11" si="1">$C$2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F6" s="84">
         <f t="shared" ref="F6:F11" si="2">(D6*C6)/(100-C6)</f>
-        <v>0.16846684668466846</v>
+        <v>0.2807780778077808</v>
       </c>
       <c r="G6" s="84">
         <v>11.28</v>
@@ -2288,15 +2306,15 @@
       </c>
       <c r="D7" s="83">
         <f t="shared" si="0"/>
-        <v>1684.5</v>
+        <v>2807.5</v>
       </c>
       <c r="E7" s="97">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F7" s="84">
         <f t="shared" si="2"/>
-        <v>1.6861861861861862</v>
+        <v>2.8103103103103102</v>
       </c>
       <c r="G7" s="84">
         <v>11.3</v>
@@ -2322,15 +2340,15 @@
       </c>
       <c r="D8" s="102">
         <f t="shared" si="0"/>
-        <v>1684.5</v>
+        <v>2807.5</v>
       </c>
       <c r="E8" s="103">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F8" s="101">
         <f t="shared" si="2"/>
-        <v>4.2218045112781954</v>
+        <v>7.0363408521303255</v>
       </c>
       <c r="G8" s="101">
         <v>11.32</v>
@@ -2364,15 +2382,15 @@
       </c>
       <c r="D9" s="83">
         <f t="shared" si="0"/>
-        <v>1684.5</v>
+        <v>2807.5</v>
       </c>
       <c r="E9" s="97">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="84">
         <f t="shared" si="2"/>
-        <v>8.4648241206030157</v>
+        <v>14.108040201005025</v>
       </c>
       <c r="G9" s="84">
         <v>11.34</v>
@@ -2406,15 +2424,15 @@
       </c>
       <c r="D10" s="83">
         <f t="shared" si="0"/>
-        <v>1684.5</v>
+        <v>2807.5</v>
       </c>
       <c r="E10" s="97">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F10" s="84">
         <f t="shared" si="2"/>
-        <v>12.729219143576826</v>
+        <v>21.215365239294709</v>
       </c>
       <c r="G10" s="84">
         <v>11.37</v>
@@ -2448,15 +2466,15 @@
       </c>
       <c r="D11" s="83">
         <f t="shared" si="0"/>
-        <v>1684.5</v>
+        <v>2807.5</v>
       </c>
       <c r="E11" s="97">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F11" s="84">
         <f t="shared" si="2"/>
-        <v>17.015151515151516</v>
+        <v>28.358585858585858</v>
       </c>
       <c r="G11" s="84">
         <v>11.4</v>
@@ -2532,7 +2550,7 @@
       <c r="C14" s="81"/>
       <c r="D14" s="81">
         <f>C2*D13</f>
-        <v>1684.5</v>
+        <v>2807.5</v>
       </c>
       <c r="E14" s="81" t="s">
         <v>76</v>
@@ -2844,15 +2862,15 @@
       </c>
       <c r="D26" s="17">
         <f>E26*$D$35</f>
-        <v>1332</v>
+        <v>2220</v>
       </c>
       <c r="E26" s="98">
         <f>$C$2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F26" s="17">
         <f>(D26*C26)/(100-C26)</f>
-        <v>1.3333333333333335</v>
+        <v>2.2222222222222219</v>
       </c>
       <c r="H26" s="17"/>
     </row>
@@ -2864,15 +2882,15 @@
       </c>
       <c r="D27" s="17">
         <f t="shared" ref="D27:D32" si="6">E27*$D$35</f>
-        <v>1332</v>
+        <v>2220</v>
       </c>
       <c r="E27" s="98">
         <f t="shared" ref="E27:E32" si="7">$C$2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F27" s="17">
         <f>(D27*C27)/(100-C27)</f>
-        <v>4.5442504515352207</v>
+        <v>7.5737507525587002</v>
       </c>
       <c r="H27" s="17"/>
     </row>
@@ -2884,15 +2902,15 @@
       </c>
       <c r="D28" s="17">
         <f t="shared" si="6"/>
-        <v>1332</v>
+        <v>2220</v>
       </c>
       <c r="E28" s="98">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F28" s="17">
         <f>(D28*C28)/(100-C28)</f>
-        <v>16.45110346223932</v>
+        <v>27.418505770398866</v>
       </c>
       <c r="H28" s="17"/>
     </row>
@@ -2904,15 +2922,15 @@
       </c>
       <c r="D29" s="17">
         <f t="shared" si="6"/>
-        <v>1332</v>
+        <v>2220</v>
       </c>
       <c r="E29" s="98">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F29" s="17">
         <f>(D29*C29)/(100-C29)</f>
-        <v>59.558712912661932</v>
+        <v>99.264521521103219</v>
       </c>
       <c r="H29" s="17"/>
     </row>
@@ -2924,15 +2942,15 @@
       </c>
       <c r="D30" s="105">
         <f t="shared" si="6"/>
-        <v>1332</v>
+        <v>2220</v>
       </c>
       <c r="E30" s="106">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F30" s="105">
         <f>(D30*C30)/(100-C30)</f>
-        <v>235.05882352941177</v>
+        <v>391.76470588235293</v>
       </c>
       <c r="H30" s="17"/>
     </row>
@@ -2944,15 +2962,15 @@
       </c>
       <c r="D31" s="114">
         <f t="shared" si="6"/>
-        <v>1332</v>
+        <v>2220</v>
       </c>
       <c r="E31" s="115">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F31" s="114">
         <f t="shared" ref="F31:F32" si="8">(D31*C31)/(100-C31)</f>
-        <v>358.5698692727504</v>
+        <v>597.61644878791742</v>
       </c>
       <c r="H31" s="17"/>
     </row>
@@ -2964,15 +2982,15 @@
       </c>
       <c r="D32" s="17">
         <f t="shared" si="6"/>
-        <v>1332</v>
+        <v>2220</v>
       </c>
       <c r="E32" s="98">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F32" s="17">
         <f t="shared" si="8"/>
-        <v>570.85714285714289</v>
+        <v>951.42857142857144</v>
       </c>
       <c r="H32" s="17"/>
     </row>
@@ -3010,7 +3028,7 @@
       <c r="B36" s="57"/>
       <c r="D36" s="15">
         <f>C2*D35</f>
-        <v>1332</v>
+        <v>2220</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>76</v>
@@ -3412,23 +3430,23 @@
       </c>
       <c r="D59" s="17">
         <f>E59*$D$67</f>
-        <v>999</v>
+        <v>1665</v>
       </c>
       <c r="E59" s="98">
         <f>$C$2*0.75</f>
-        <v>1125</v>
+        <v>1875</v>
       </c>
       <c r="F59" s="17">
         <f>G59*$F$67</f>
-        <v>356.25</v>
+        <v>593.75</v>
       </c>
       <c r="G59" s="98">
         <f>$C$2*0.25</f>
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="H59" s="17">
         <f>((D59+F59)*C59)/(100-C59)</f>
-        <v>1.3566066066066065</v>
+        <v>2.2610110110110111</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -3439,23 +3457,23 @@
       </c>
       <c r="D60" s="17">
         <f t="shared" ref="D60:D65" si="17">E60*$D$67</f>
-        <v>999</v>
+        <v>1665</v>
       </c>
       <c r="E60" s="98">
         <f t="shared" ref="E60:E65" si="18">$C$2*0.75</f>
-        <v>1125</v>
+        <v>1875</v>
       </c>
       <c r="F60" s="17">
         <f t="shared" ref="F60:F65" si="19">G60*$F$67</f>
-        <v>356.25</v>
+        <v>593.75</v>
       </c>
       <c r="G60" s="98">
         <f t="shared" ref="G60:G65" si="20">$C$2*0.25</f>
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" ref="H60:H63" si="21">((D60+F60)*C60)/(100-C60)</f>
-        <v>4.623570138470801</v>
+        <v>7.7059502307846683</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -3466,23 +3484,23 @@
       </c>
       <c r="D61" s="17">
         <f t="shared" si="17"/>
-        <v>999</v>
+        <v>1665</v>
       </c>
       <c r="E61" s="98">
         <f t="shared" si="18"/>
-        <v>1125</v>
+        <v>1875</v>
       </c>
       <c r="F61" s="17">
         <f t="shared" si="19"/>
-        <v>356.25</v>
+        <v>593.75</v>
       </c>
       <c r="G61" s="98">
         <f t="shared" si="20"/>
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="21"/>
-        <v>16.793816311654655</v>
+        <v>27.989693852757757</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -3493,23 +3511,23 @@
       </c>
       <c r="D62" s="17">
         <f t="shared" si="17"/>
-        <v>999</v>
+        <v>1665</v>
       </c>
       <c r="E62" s="98">
         <f t="shared" si="18"/>
-        <v>1125</v>
+        <v>1875</v>
       </c>
       <c r="F62" s="17">
         <f t="shared" si="19"/>
-        <v>356.25</v>
+        <v>593.75</v>
       </c>
       <c r="G62" s="98">
         <f t="shared" si="20"/>
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="21"/>
-        <v>60.598307563727545</v>
+        <v>100.99717927287924</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -3520,23 +3538,23 @@
       </c>
       <c r="D63" s="108">
         <f t="shared" si="17"/>
-        <v>999</v>
+        <v>1665</v>
       </c>
       <c r="E63" s="109">
         <f t="shared" si="18"/>
-        <v>1125</v>
+        <v>1875</v>
       </c>
       <c r="F63" s="108">
         <f t="shared" si="19"/>
-        <v>356.25</v>
+        <v>593.75</v>
       </c>
       <c r="G63" s="109">
         <f t="shared" si="20"/>
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="H63" s="108">
         <f t="shared" si="21"/>
-        <v>239.16176470588235</v>
+        <v>398.60294117647061</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -3547,23 +3565,23 @@
       </c>
       <c r="D64" s="111">
         <f t="shared" si="17"/>
-        <v>999</v>
+        <v>1665</v>
       </c>
       <c r="E64" s="112">
         <f t="shared" si="18"/>
-        <v>1125</v>
+        <v>1875</v>
       </c>
       <c r="F64" s="111">
         <f t="shared" si="19"/>
-        <v>356.25</v>
+        <v>593.75</v>
       </c>
       <c r="G64" s="112">
         <f t="shared" si="20"/>
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="H64" s="111">
         <f t="shared" ref="H64:H65" si="22">((D64+F64)*C64)/(100-C64)</f>
-        <v>325.36755952380952</v>
+        <v>542.2792658730159</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3574,23 +3592,23 @@
       </c>
       <c r="D65" s="17">
         <f t="shared" si="17"/>
-        <v>999</v>
+        <v>1665</v>
       </c>
       <c r="E65" s="98">
         <f t="shared" si="18"/>
-        <v>1125</v>
+        <v>1875</v>
       </c>
       <c r="F65" s="17">
         <f t="shared" si="19"/>
-        <v>356.25</v>
+        <v>593.75</v>
       </c>
       <c r="G65" s="98">
         <f t="shared" si="20"/>
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="22"/>
-        <v>451.75</v>
+        <v>752.91666666666663</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3621,7 +3639,7 @@
       <c r="C68" s="15"/>
       <c r="D68" s="15">
         <f>C2*((D67*0.75)+(F67*0.25))</f>
-        <v>1355.25</v>
+        <v>2258.75</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>76</v>
@@ -4086,15 +4104,15 @@
       </c>
       <c r="D91" s="17">
         <f>E91*$D$98</f>
-        <v>1540.4999999999998</v>
+        <v>2567.5</v>
       </c>
       <c r="E91" s="98">
         <f>$C$2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F91" s="17">
         <f>(D91*C91)/(100-C91)</f>
-        <v>1.5420420420420418</v>
+        <v>2.57007007007007</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
@@ -4107,15 +4125,15 @@
       </c>
       <c r="D92" s="17">
         <f t="shared" ref="D92:D96" si="35">E92*$D$98</f>
-        <v>1540.4999999999998</v>
+        <v>2567.5</v>
       </c>
       <c r="E92" s="98">
         <f t="shared" ref="E92:E96" si="36">$C$2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F92" s="17">
         <f t="shared" ref="F92:F95" si="37">(D92*C92)/(100-C92)</f>
-        <v>6.6527568544742381</v>
+        <v>11.087928090790401</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
@@ -4128,15 +4146,15 @@
       </c>
       <c r="D93" s="17">
         <f t="shared" si="35"/>
-        <v>1540.4999999999998</v>
+        <v>2567.5</v>
       </c>
       <c r="E93" s="98">
         <f t="shared" si="36"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F93" s="17">
         <f t="shared" si="37"/>
-        <v>29.036423841059598</v>
+        <v>48.394039735099334</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
@@ -4149,15 +4167,15 @@
       </c>
       <c r="D94" s="108">
         <f t="shared" si="35"/>
-        <v>1540.4999999999998</v>
+        <v>2567.5</v>
       </c>
       <c r="E94" s="109">
         <f t="shared" si="36"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F94" s="108">
         <f t="shared" si="37"/>
-        <v>133.95652173913041</v>
+        <v>223.2608695652174</v>
       </c>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
@@ -4170,15 +4188,15 @@
       </c>
       <c r="D95" s="111">
         <f t="shared" si="35"/>
-        <v>1540.4999999999998</v>
+        <v>2567.5</v>
       </c>
       <c r="E95" s="112">
         <f t="shared" si="36"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F95" s="111">
         <f t="shared" si="37"/>
-        <v>189.42700729927003</v>
+        <v>315.71167883211677</v>
       </c>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
@@ -4191,15 +4209,15 @@
       </c>
       <c r="D96" s="17">
         <f t="shared" si="35"/>
-        <v>1540.4999999999998</v>
+        <v>2567.5</v>
       </c>
       <c r="E96" s="98">
         <f t="shared" si="36"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F96" s="17">
         <f t="shared" ref="F96" si="38">(D96*C96)/(100-C96)</f>
-        <v>271.85294117647055</v>
+        <v>453.08823529411762</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
@@ -4230,7 +4248,7 @@
       <c r="C99" s="15"/>
       <c r="D99" s="15">
         <f>C2*D98</f>
-        <v>1540.4999999999998</v>
+        <v>2567.5</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>76</v>
@@ -4693,20 +4711,20 @@
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="119"/>
       <c r="B125" s="44"/>
-      <c r="C125" s="14">
+      <c r="C125" s="125">
         <v>0.1</v>
       </c>
-      <c r="D125" s="17">
+      <c r="D125" s="126">
         <f>E125*$D$131</f>
-        <v>2224.8000000000002</v>
-      </c>
-      <c r="E125" s="98">
+        <v>3708</v>
+      </c>
+      <c r="E125" s="127">
         <f>$C$2</f>
-        <v>1500</v>
-      </c>
-      <c r="F125" s="17">
+        <v>2500</v>
+      </c>
+      <c r="F125" s="126">
         <f>(D125*C125)/(100-C125)</f>
-        <v>2.2270270270270269</v>
+        <v>3.7117117117117115</v>
       </c>
       <c r="G125" s="56"/>
       <c r="H125" s="50">
@@ -4716,20 +4734,20 @@
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="119"/>
       <c r="B126" s="44"/>
-      <c r="C126" s="86">
+      <c r="C126" s="125">
         <v>0.35</v>
       </c>
-      <c r="D126" s="17">
+      <c r="D126" s="126">
         <f t="shared" ref="D126:D129" si="49">E126*$D$131</f>
-        <v>2224.8000000000002</v>
-      </c>
-      <c r="E126" s="98">
+        <v>3708</v>
+      </c>
+      <c r="E126" s="127">
         <f t="shared" ref="E126:E129" si="50">$C$2</f>
-        <v>1500</v>
-      </c>
-      <c r="F126" s="17">
+        <v>2500</v>
+      </c>
+      <c r="F126" s="126">
         <f t="shared" ref="F126:F129" si="51">(D126*C126)/(100-C126)</f>
-        <v>7.8141495233316611</v>
+        <v>13.0235825388861</v>
       </c>
       <c r="G126" s="50"/>
       <c r="H126" s="50">
@@ -4744,15 +4762,15 @@
       </c>
       <c r="D127" s="17">
         <f t="shared" si="49"/>
-        <v>2224.8000000000002</v>
+        <v>3708</v>
       </c>
       <c r="E127" s="98">
         <f t="shared" si="50"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F127" s="17">
         <f t="shared" si="51"/>
-        <v>27.47778902611865</v>
+        <v>45.796315043531081</v>
       </c>
       <c r="G127" s="50"/>
       <c r="H127" s="50">
@@ -4767,15 +4785,15 @@
       </c>
       <c r="D128" s="17">
         <f t="shared" si="49"/>
-        <v>2224.8000000000002</v>
+        <v>3708</v>
       </c>
       <c r="E128" s="98">
         <f t="shared" si="50"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F128" s="17">
         <f t="shared" si="51"/>
-        <v>99.479147513581296</v>
+        <v>165.79857918930216</v>
       </c>
       <c r="G128" s="53"/>
       <c r="H128" s="50">
@@ -4785,20 +4803,20 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="119"/>
       <c r="B129" s="44"/>
-      <c r="C129" s="86">
+      <c r="C129" s="122">
         <v>15</v>
       </c>
-      <c r="D129" s="17">
+      <c r="D129" s="123">
         <f t="shared" si="49"/>
-        <v>2224.8000000000002</v>
-      </c>
-      <c r="E129" s="98">
+        <v>3708</v>
+      </c>
+      <c r="E129" s="124">
         <f t="shared" si="50"/>
-        <v>1500</v>
-      </c>
-      <c r="F129" s="17">
+        <v>2500</v>
+      </c>
+      <c r="F129" s="123">
         <f t="shared" si="51"/>
-        <v>392.61176470588236</v>
+        <v>654.35294117647061</v>
       </c>
       <c r="G129" s="53"/>
       <c r="H129" s="50">
@@ -4833,7 +4851,7 @@
       <c r="C132" s="15"/>
       <c r="D132" s="15">
         <f>C2*D131</f>
-        <v>2224.8000000000002</v>
+        <v>3708</v>
       </c>
       <c r="E132" s="15" t="s">
         <v>76</v>
@@ -5017,20 +5035,20 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="119"/>
       <c r="B144" s="44"/>
-      <c r="C144" s="14">
+      <c r="C144" s="125">
         <v>0.1</v>
       </c>
-      <c r="D144" s="17">
+      <c r="D144" s="126">
         <f>E144*$D$150</f>
-        <v>1988.2499999999998</v>
-      </c>
-      <c r="E144" s="98">
+        <v>3313.7499999999995</v>
+      </c>
+      <c r="E144" s="127">
         <f>$C$2</f>
-        <v>1500</v>
-      </c>
-      <c r="F144" s="17">
+        <v>2500</v>
+      </c>
+      <c r="F144" s="126">
         <f>(D144*C144)/(100-C144)</f>
-        <v>1.9902402402402399</v>
+        <v>3.3170670670670668</v>
       </c>
       <c r="G144" s="50"/>
       <c r="H144" s="50"/>
@@ -5038,20 +5056,20 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="119"/>
       <c r="B145" s="44"/>
-      <c r="C145" s="86">
+      <c r="C145" s="125">
         <v>0.35</v>
       </c>
-      <c r="D145" s="17">
+      <c r="D145" s="126">
         <f t="shared" ref="D145:D148" si="55">E145*$D$150</f>
-        <v>1988.2499999999998</v>
-      </c>
-      <c r="E145" s="98">
+        <v>3313.7499999999995</v>
+      </c>
+      <c r="E145" s="127">
         <f t="shared" ref="E145:E148" si="56">$C$2</f>
-        <v>1500</v>
-      </c>
-      <c r="F145" s="17">
+        <v>2500</v>
+      </c>
+      <c r="F145" s="126">
         <f t="shared" ref="F145:F148" si="57">(D145*C145)/(100-C145)</f>
-        <v>6.9833166081284483</v>
+        <v>11.638861013547412</v>
       </c>
       <c r="G145" s="50"/>
       <c r="H145" s="50"/>
@@ -5064,15 +5082,15 @@
       </c>
       <c r="D146" s="17">
         <f t="shared" si="55"/>
-        <v>1988.2499999999998</v>
+        <v>3313.7499999999995</v>
       </c>
       <c r="E146" s="98">
         <f t="shared" si="56"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F146" s="17">
         <f t="shared" si="57"/>
-        <v>24.55623608017817</v>
+        <v>40.927060133630278</v>
       </c>
       <c r="G146" s="50"/>
       <c r="H146" s="50"/>
@@ -5085,15 +5103,15 @@
       </c>
       <c r="D147" s="17">
         <f t="shared" si="55"/>
-        <v>1988.2499999999998</v>
+        <v>3313.7499999999995</v>
       </c>
       <c r="E147" s="98">
         <f t="shared" si="56"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F147" s="17">
         <f t="shared" si="57"/>
-        <v>88.902110321771829</v>
+        <v>148.17018386961971</v>
       </c>
       <c r="G147" s="53"/>
       <c r="H147" s="50"/>
@@ -5101,20 +5119,20 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="119"/>
       <c r="B148" s="44"/>
-      <c r="C148" s="86">
+      <c r="C148" s="122">
         <v>15</v>
       </c>
-      <c r="D148" s="17">
+      <c r="D148" s="123">
         <f t="shared" si="55"/>
-        <v>1988.2499999999998</v>
-      </c>
-      <c r="E148" s="98">
+        <v>3313.7499999999995</v>
+      </c>
+      <c r="E148" s="124">
         <f t="shared" si="56"/>
-        <v>1500</v>
-      </c>
-      <c r="F148" s="17">
+        <v>2500</v>
+      </c>
+      <c r="F148" s="123">
         <f t="shared" si="57"/>
-        <v>350.86764705882348</v>
+        <v>584.77941176470574</v>
       </c>
       <c r="G148" s="53"/>
       <c r="H148" s="50"/>
@@ -5147,7 +5165,7 @@
       <c r="C151" s="15"/>
       <c r="D151" s="15">
         <f>C2*D150</f>
-        <v>1988.2499999999998</v>
+        <v>3313.7499999999995</v>
       </c>
       <c r="E151" s="15" t="s">
         <v>76</v>
@@ -5314,15 +5332,15 @@
       </c>
       <c r="D163" s="17">
         <f>E163*$D$171</f>
-        <v>1425</v>
+        <v>2375</v>
       </c>
       <c r="E163" s="98">
         <f>$C$2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F163" s="17">
         <f>(D163*C163)/(100-C163)</f>
-        <v>1.4264264264264264</v>
+        <v>2.3773773773773774</v>
       </c>
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
@@ -5335,15 +5353,15 @@
       </c>
       <c r="D164" s="17">
         <f t="shared" ref="D164:D169" si="61">E164*$D$171</f>
-        <v>1425</v>
+        <v>2375</v>
       </c>
       <c r="E164" s="98">
         <f t="shared" ref="E164:E169" si="62">$C$2</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F164" s="17">
         <f t="shared" ref="F164:F167" si="63">(D164*C164)/(100-C164)</f>
-        <v>8.6016096579476855</v>
+        <v>14.336016096579476</v>
       </c>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
@@ -5356,15 +5374,15 @@
       </c>
       <c r="D165" s="17">
         <f t="shared" si="61"/>
-        <v>1425</v>
+        <v>2375</v>
       </c>
       <c r="E165" s="98">
         <f t="shared" si="62"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F165" s="17">
         <f t="shared" si="63"/>
-        <v>14.393939393939394</v>
+        <v>23.98989898989899</v>
       </c>
       <c r="G165" s="17"/>
       <c r="H165" s="17"/>
@@ -5377,15 +5395,15 @@
       </c>
       <c r="D166" s="17">
         <f t="shared" si="61"/>
-        <v>1425</v>
+        <v>2375</v>
       </c>
       <c r="E166" s="98">
         <f t="shared" si="62"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F166" s="17">
         <f t="shared" si="63"/>
-        <v>29.081632653061224</v>
+        <v>48.469387755102041</v>
       </c>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
@@ -5398,15 +5416,15 @@
       </c>
       <c r="D167" s="105">
         <f t="shared" si="61"/>
-        <v>1425</v>
+        <v>2375</v>
       </c>
       <c r="E167" s="106">
         <f t="shared" si="62"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F167" s="105">
         <f t="shared" si="63"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
@@ -5419,15 +5437,15 @@
       </c>
       <c r="D168" s="17">
         <f t="shared" si="61"/>
-        <v>1425</v>
+        <v>2375</v>
       </c>
       <c r="E168" s="98">
         <f t="shared" si="62"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F168" s="17">
         <f t="shared" ref="F168:F169" si="64">(D168*C168)/(100-C168)</f>
-        <v>158.33333333333334</v>
+        <v>263.88888888888891</v>
       </c>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
@@ -5440,15 +5458,15 @@
       </c>
       <c r="D169" s="17">
         <f t="shared" si="61"/>
-        <v>1425</v>
+        <v>2375</v>
       </c>
       <c r="E169" s="98">
         <f t="shared" si="62"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F169" s="17">
         <f t="shared" si="64"/>
-        <v>251.47058823529412</v>
+        <v>419.11764705882354</v>
       </c>
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
@@ -5479,7 +5497,7 @@
       <c r="C172" s="15"/>
       <c r="D172" s="15">
         <f>C2*D171</f>
-        <v>1425</v>
+        <v>2375</v>
       </c>
       <c r="E172" s="15" t="s">
         <v>76</v>

--- a/09_characterizationRheology/solutionsNrheology.xlsx
+++ b/09_characterizationRheology/solutionsNrheology.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_Thesis/09_characterizationRheology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\09_characterizationRheology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{F486458C-7FBD-48EA-BCAA-1067CC158AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{955C02EF-7B9A-448A-B641-1124BED266CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB9019-C8EA-45A3-8298-453573DD3713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="885" windowWidth="21225" windowHeight="14865" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="13200" yWindow="0" windowWidth="15630" windowHeight="13665" firstSheet="2" activeTab="3" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
     <sheet name="solventNpolymerData" sheetId="1" r:id="rId2"/>
     <sheet name="solutionPrepNCarac" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -825,8 +826,14 @@
     <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -834,8 +841,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -843,12 +850,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1500,7 +1501,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:AB187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2151,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="122" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="72"/>
@@ -2189,7 +2190,7 @@
       <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="72"/>
       <c r="C4" s="84">
         <v>0</v>
@@ -2233,7 +2234,7 @@
       <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="72"/>
       <c r="C5" s="84">
         <v>1E-3</v>
@@ -2265,7 +2266,7 @@
       <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="72"/>
       <c r="C6" s="84">
         <v>0.01</v>
@@ -2299,7 +2300,7 @@
       <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="72"/>
       <c r="C7" s="84">
         <v>0.1</v>
@@ -2333,7 +2334,7 @@
       <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="72"/>
       <c r="C8" s="101">
         <v>0.25</v>
@@ -2375,7 +2376,7 @@
       <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="72"/>
       <c r="C9" s="84">
         <v>0.5</v>
@@ -2417,7 +2418,7 @@
       <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="72"/>
       <c r="C10" s="84">
         <v>0.75</v>
@@ -2459,7 +2460,7 @@
       <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="72"/>
       <c r="C11" s="84">
         <v>1</v>
@@ -2501,7 +2502,7 @@
       <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="72"/>
       <c r="C12" s="75"/>
       <c r="D12" s="76"/>
@@ -2525,7 +2526,7 @@
       <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="72"/>
       <c r="C13" s="79" t="s">
         <v>35</v>
@@ -2545,7 +2546,7 @@
       <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="72"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81">
@@ -2605,7 +2606,7 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="123" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="85">
@@ -2640,7 +2641,7 @@
       <c r="O16" s="89"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="85"/>
       <c r="C17" s="17" t="e">
         <f t="shared" ref="C17:C22" si="4">(F17/(D17+F17))*100</f>
@@ -2673,7 +2674,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="85"/>
       <c r="C18" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2706,7 +2707,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="85"/>
       <c r="C19" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2739,7 +2740,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="85"/>
       <c r="C20" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2768,7 +2769,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="117"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="85"/>
       <c r="C21" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2797,7 +2798,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="85"/>
       <c r="C22" s="17" t="e">
         <f t="shared" si="4"/>
@@ -2835,7 +2836,7 @@
       <c r="K24"/>
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="119" t="s">
+      <c r="A25" s="122" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="44"/>
@@ -2855,7 +2856,7 @@
       <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="44"/>
       <c r="C26" s="14">
         <v>0.1</v>
@@ -2875,7 +2876,7 @@
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="44"/>
       <c r="C27" s="14">
         <v>0.34</v>
@@ -2895,7 +2896,7 @@
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="44"/>
       <c r="C28" s="14">
         <v>1.22</v>
@@ -2915,7 +2916,7 @@
       <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="44"/>
       <c r="C29" s="14">
         <v>4.28</v>
@@ -2935,7 +2936,7 @@
       <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="119"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="44"/>
       <c r="C30" s="104">
         <v>15</v>
@@ -2955,7 +2956,7 @@
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="62"/>
       <c r="C31" s="113">
         <v>21.21</v>
@@ -2975,7 +2976,7 @@
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="119"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="62"/>
       <c r="C32" s="14">
         <v>30</v>
@@ -2995,7 +2996,7 @@
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="62"/>
       <c r="C33" s="14"/>
       <c r="D33" s="17"/>
@@ -3004,11 +3005,11 @@
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
+      <c r="A34" s="122"/>
       <c r="B34" s="44"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="44"/>
       <c r="C35" s="36" t="s">
         <v>35</v>
@@ -3039,7 +3040,7 @@
       <c r="B37" s="34"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="123" t="s">
         <v>109</v>
       </c>
       <c r="B38" s="34">
@@ -3061,7 +3062,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
+      <c r="A39" s="123"/>
       <c r="B39" s="34">
         <v>2</v>
       </c>
@@ -3081,7 +3082,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
+      <c r="A40" s="123"/>
       <c r="B40" s="58"/>
       <c r="C40" s="17" t="e">
         <f>(F40/(D40+F40))*100</f>
@@ -3097,7 +3098,7 @@
       <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="58"/>
       <c r="C41" s="17" t="e">
         <f t="shared" ref="C41:C44" si="11">(F41/(D41+F41))*100</f>
@@ -3113,7 +3114,7 @@
       <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="117"/>
+      <c r="A42" s="123"/>
       <c r="B42" s="58"/>
       <c r="C42" s="17" t="e">
         <f t="shared" si="11"/>
@@ -3129,7 +3130,7 @@
       <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="117"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="58"/>
       <c r="C43" s="17" t="e">
         <f t="shared" si="11"/>
@@ -3145,7 +3146,7 @@
       <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="117"/>
+      <c r="A44" s="123"/>
       <c r="B44" s="58"/>
       <c r="C44" s="17" t="e">
         <f t="shared" si="11"/>
@@ -3165,7 +3166,7 @@
       <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="123" t="s">
         <v>100</v>
       </c>
       <c r="B46" s="47">
@@ -3189,7 +3190,7 @@
       <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="117"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="47">
         <v>1</v>
       </c>
@@ -3211,7 +3212,7 @@
       <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="117"/>
+      <c r="A48" s="123"/>
       <c r="B48" s="47">
         <v>2</v>
       </c>
@@ -3233,7 +3234,7 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="117"/>
+      <c r="A49" s="123"/>
       <c r="B49" s="47">
         <v>3</v>
       </c>
@@ -3255,7 +3256,7 @@
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="117"/>
+      <c r="A50" s="123"/>
       <c r="B50" s="47">
         <v>4</v>
       </c>
@@ -3281,7 +3282,7 @@
       <c r="B51" s="34"/>
     </row>
     <row r="52" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="117" t="s">
+      <c r="A52" s="123" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="47">
@@ -3305,7 +3306,7 @@
       <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="117"/>
+      <c r="A53" s="123"/>
       <c r="B53" s="47">
         <v>1</v>
       </c>
@@ -3327,7 +3328,7 @@
       <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="117"/>
+      <c r="A54" s="123"/>
       <c r="B54" s="47">
         <v>2</v>
       </c>
@@ -3349,7 +3350,7 @@
       <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="117"/>
+      <c r="A55" s="123"/>
       <c r="B55" s="47">
         <v>3</v>
       </c>
@@ -3371,7 +3372,7 @@
       <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
+      <c r="A56" s="123"/>
       <c r="B56" s="47">
         <v>4</v>
       </c>
@@ -3397,7 +3398,7 @@
       <c r="B57" s="35"/>
     </row>
     <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="119" t="s">
+      <c r="A58" s="122" t="s">
         <v>96</v>
       </c>
       <c r="B58" s="44"/>
@@ -3423,7 +3424,7 @@
       <c r="Q58" s="29"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="119"/>
+      <c r="A59" s="122"/>
       <c r="B59" s="44"/>
       <c r="C59" s="14">
         <v>0.1</v>
@@ -3450,7 +3451,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="119"/>
+      <c r="A60" s="122"/>
       <c r="B60" s="44"/>
       <c r="C60" s="14">
         <v>0.34</v>
@@ -3477,7 +3478,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="119"/>
+      <c r="A61" s="122"/>
       <c r="B61" s="44"/>
       <c r="C61" s="14">
         <v>1.224</v>
@@ -3504,7 +3505,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="119"/>
+      <c r="A62" s="122"/>
       <c r="B62" s="44"/>
       <c r="C62" s="14">
         <v>4.28</v>
@@ -3531,7 +3532,7 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="119"/>
+      <c r="A63" s="122"/>
       <c r="B63" s="44"/>
       <c r="C63" s="107">
         <v>15</v>
@@ -3558,7 +3559,7 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="119"/>
+      <c r="A64" s="122"/>
       <c r="B64" s="62"/>
       <c r="C64" s="110">
         <v>19.36</v>
@@ -3585,7 +3586,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="119"/>
+      <c r="A65" s="122"/>
       <c r="B65" s="62"/>
       <c r="C65" s="14">
         <v>25</v>
@@ -3612,11 +3613,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="119"/>
+      <c r="A66" s="122"/>
       <c r="B66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="119"/>
+      <c r="A67" s="122"/>
       <c r="B67" s="44"/>
       <c r="C67" s="36" t="s">
         <v>35</v>
@@ -3649,7 +3650,7 @@
       <c r="H68" s="15"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="117" t="s">
+      <c r="A70" s="123" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="87">
@@ -3678,7 +3679,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="117"/>
+      <c r="A71" s="123"/>
       <c r="B71" s="87">
         <v>5</v>
       </c>
@@ -3705,7 +3706,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="117"/>
+      <c r="A72" s="123"/>
       <c r="B72" s="58"/>
       <c r="C72" s="17" t="e">
         <f>(H72/(D72+F72+H72))*100</f>
@@ -3724,7 +3725,7 @@
       <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="117"/>
+      <c r="A73" s="123"/>
       <c r="B73" s="59"/>
       <c r="C73" s="17" t="e">
         <f t="shared" ref="C73:C76" si="26">(H73/(D73+F73+H73))*100</f>
@@ -3743,7 +3744,7 @@
       <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="117"/>
+      <c r="A74" s="123"/>
       <c r="B74" s="59"/>
       <c r="C74" s="17" t="e">
         <f t="shared" si="26"/>
@@ -3762,7 +3763,7 @@
       <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="117"/>
+      <c r="A75" s="123"/>
       <c r="B75" s="59"/>
       <c r="C75" s="17" t="e">
         <f t="shared" si="26"/>
@@ -3781,7 +3782,7 @@
       <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="117"/>
+      <c r="A76" s="123"/>
       <c r="B76" s="59"/>
       <c r="C76" s="17" t="e">
         <f t="shared" si="26"/>
@@ -3800,7 +3801,7 @@
       <c r="H76" s="17"/>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="123" t="s">
         <v>100</v>
       </c>
       <c r="B78" s="47">
@@ -3829,7 +3830,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="118"/>
+      <c r="A79" s="124"/>
       <c r="B79" s="48">
         <v>6</v>
       </c>
@@ -3856,7 +3857,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="118"/>
+      <c r="A80" s="124"/>
       <c r="B80" s="48">
         <v>7</v>
       </c>
@@ -3883,7 +3884,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="118"/>
+      <c r="A81" s="124"/>
       <c r="B81" s="48">
         <v>8</v>
       </c>
@@ -3910,7 +3911,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="118"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="48">
         <v>9</v>
       </c>
@@ -3938,7 +3939,7 @@
     </row>
     <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="123" t="s">
         <v>97</v>
       </c>
       <c r="B84" s="47">
@@ -3967,7 +3968,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="118"/>
+      <c r="A85" s="124"/>
       <c r="B85" s="48">
         <v>6</v>
       </c>
@@ -3994,7 +3995,7 @@
       </c>
     </row>
     <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="118"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="48">
         <v>7</v>
       </c>
@@ -4021,7 +4022,7 @@
       </c>
     </row>
     <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="118"/>
+      <c r="A87" s="124"/>
       <c r="B87" s="48">
         <v>8</v>
       </c>
@@ -4048,7 +4049,7 @@
       </c>
     </row>
     <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="118"/>
+      <c r="A88" s="124"/>
       <c r="B88" s="48">
         <v>9</v>
       </c>
@@ -4076,7 +4077,7 @@
     </row>
     <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="119" t="s">
+      <c r="A90" s="122" t="s">
         <v>96</v>
       </c>
       <c r="B90" s="44"/>
@@ -4097,7 +4098,7 @@
       <c r="Q90" s="29"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="119"/>
+      <c r="A91" s="122"/>
       <c r="B91" s="44"/>
       <c r="C91" s="14">
         <v>0.1</v>
@@ -4118,7 +4119,7 @@
       <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="119"/>
+      <c r="A92" s="122"/>
       <c r="B92" s="44"/>
       <c r="C92" s="14">
         <v>0.43</v>
@@ -4139,7 +4140,7 @@
       <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="119"/>
+      <c r="A93" s="122"/>
       <c r="B93" s="44"/>
       <c r="C93" s="14">
         <v>1.85</v>
@@ -4160,7 +4161,7 @@
       <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="119"/>
+      <c r="A94" s="122"/>
       <c r="B94" s="44"/>
       <c r="C94" s="107">
         <v>8</v>
@@ -4181,7 +4182,7 @@
       <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="119"/>
+      <c r="A95" s="122"/>
       <c r="B95" s="44"/>
       <c r="C95" s="110">
         <v>10.95</v>
@@ -4202,7 +4203,7 @@
       <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="119"/>
+      <c r="A96" s="122"/>
       <c r="B96" s="62"/>
       <c r="C96" s="14">
         <v>15</v>
@@ -4223,11 +4224,11 @@
       <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="119"/>
+      <c r="A97" s="122"/>
       <c r="B97" s="44"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="119"/>
+      <c r="A98" s="122"/>
       <c r="B98" s="44"/>
       <c r="C98" s="36" t="s">
         <v>35</v>
@@ -4268,7 +4269,7 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="120" t="s">
+      <c r="A101" s="126" t="s">
         <v>109</v>
       </c>
       <c r="B101" s="61">
@@ -4292,7 +4293,7 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="120"/>
+      <c r="A102" s="126"/>
       <c r="B102" s="60">
         <v>7</v>
       </c>
@@ -4314,7 +4315,7 @@
       <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="120"/>
+      <c r="A103" s="126"/>
       <c r="B103" s="61"/>
       <c r="C103" s="42" t="e">
         <f t="shared" ref="C103:C106" si="41">(F103/(D103+F103))*100</f>
@@ -4330,7 +4331,7 @@
       <c r="H103" s="43"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="120"/>
+      <c r="A104" s="126"/>
       <c r="B104" s="61"/>
       <c r="C104" s="42" t="e">
         <f t="shared" si="41"/>
@@ -4346,7 +4347,7 @@
       <c r="H104" s="43"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="120"/>
+      <c r="A105" s="126"/>
       <c r="B105" s="61"/>
       <c r="C105" s="42" t="e">
         <f t="shared" si="41"/>
@@ -4362,7 +4363,7 @@
       <c r="H105" s="43"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="120"/>
+      <c r="A106" s="126"/>
       <c r="B106" s="61"/>
       <c r="C106" s="42" t="e">
         <f t="shared" si="41"/>
@@ -4388,7 +4389,7 @@
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="120" t="s">
+      <c r="A108" s="126" t="s">
         <v>97</v>
       </c>
       <c r="B108" s="45">
@@ -4412,7 +4413,7 @@
       <c r="H108" s="43"/>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="121"/>
+      <c r="A109" s="127"/>
       <c r="B109" s="46">
         <v>11</v>
       </c>
@@ -4434,7 +4435,7 @@
       <c r="H109" s="43"/>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="121"/>
+      <c r="A110" s="127"/>
       <c r="B110" s="46">
         <v>12</v>
       </c>
@@ -4456,7 +4457,7 @@
       <c r="H110" s="43"/>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="121"/>
+      <c r="A111" s="127"/>
       <c r="B111" s="46">
         <v>13</v>
       </c>
@@ -4478,7 +4479,7 @@
       <c r="H111" s="43"/>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="121"/>
+      <c r="A112" s="127"/>
       <c r="B112" s="46">
         <v>14</v>
       </c>
@@ -4501,7 +4502,7 @@
     </row>
     <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="119" t="s">
+      <c r="A114" s="122" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="44"/>
@@ -4523,7 +4524,7 @@
       <c r="H114" s="31"/>
     </row>
     <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="119"/>
+      <c r="A115" s="122"/>
       <c r="B115" s="44"/>
       <c r="C115" s="23">
         <v>0.25</v>
@@ -4547,7 +4548,7 @@
       <c r="H115" s="31"/>
     </row>
     <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="119"/>
+      <c r="A116" s="122"/>
       <c r="B116" s="44"/>
       <c r="C116" s="23">
         <v>3.75</v>
@@ -4571,7 +4572,7 @@
       <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="119"/>
+      <c r="A117" s="122"/>
       <c r="B117" s="44"/>
       <c r="C117" s="23">
         <v>7.5</v>
@@ -4595,7 +4596,7 @@
       <c r="H117" s="31"/>
     </row>
     <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="119"/>
+      <c r="A118" s="122"/>
       <c r="B118" s="44"/>
       <c r="C118" s="23">
         <v>11.25</v>
@@ -4619,7 +4620,7 @@
       <c r="H118" s="31"/>
     </row>
     <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="119"/>
+      <c r="A119" s="122"/>
       <c r="B119" s="44"/>
       <c r="C119" s="23">
         <v>15</v>
@@ -4643,7 +4644,7 @@
       <c r="H119" s="31"/>
     </row>
     <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="119"/>
+      <c r="A120" s="122"/>
       <c r="B120" s="44"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -4653,7 +4654,7 @@
       <c r="H120" s="31"/>
     </row>
     <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="119"/>
+      <c r="A121" s="122"/>
       <c r="B121" s="44"/>
       <c r="C121" s="38" t="s">
         <v>35</v>
@@ -4671,7 +4672,7 @@
       <c r="H121" s="40"/>
     </row>
     <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="119"/>
+      <c r="A122" s="122"/>
       <c r="B122" s="44"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18" t="e">
@@ -4687,7 +4688,7 @@
     </row>
     <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="119" t="s">
+      <c r="A124" s="122" t="s">
         <v>96</v>
       </c>
       <c r="B124" s="44"/>
@@ -4709,20 +4710,20 @@
       <c r="Q124" s="29"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="119"/>
+      <c r="A125" s="122"/>
       <c r="B125" s="44"/>
-      <c r="C125" s="125">
+      <c r="C125" s="119">
         <v>0.1</v>
       </c>
-      <c r="D125" s="126">
+      <c r="D125" s="120">
         <f>E125*$D$131</f>
         <v>3708</v>
       </c>
-      <c r="E125" s="127">
+      <c r="E125" s="121">
         <f>$C$2</f>
         <v>2500</v>
       </c>
-      <c r="F125" s="126">
+      <c r="F125" s="120">
         <f>(D125*C125)/(100-C125)</f>
         <v>3.7117117117117115</v>
       </c>
@@ -4732,20 +4733,20 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="119"/>
+      <c r="A126" s="122"/>
       <c r="B126" s="44"/>
-      <c r="C126" s="125">
+      <c r="C126" s="119">
         <v>0.35</v>
       </c>
-      <c r="D126" s="126">
+      <c r="D126" s="120">
         <f t="shared" ref="D126:D129" si="49">E126*$D$131</f>
         <v>3708</v>
       </c>
-      <c r="E126" s="127">
+      <c r="E126" s="121">
         <f t="shared" ref="E126:E129" si="50">$C$2</f>
         <v>2500</v>
       </c>
-      <c r="F126" s="126">
+      <c r="F126" s="120">
         <f t="shared" ref="F126:F129" si="51">(D126*C126)/(100-C126)</f>
         <v>13.0235825388861</v>
       </c>
@@ -4755,7 +4756,7 @@
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="119"/>
+      <c r="A127" s="122"/>
       <c r="B127" s="44"/>
       <c r="C127" s="86">
         <v>1.22</v>
@@ -4778,7 +4779,7 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="119"/>
+      <c r="A128" s="122"/>
       <c r="B128" s="44"/>
       <c r="C128" s="86">
         <v>4.28</v>
@@ -4801,20 +4802,20 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="119"/>
+      <c r="A129" s="122"/>
       <c r="B129" s="44"/>
-      <c r="C129" s="122">
+      <c r="C129" s="116">
         <v>15</v>
       </c>
-      <c r="D129" s="123">
+      <c r="D129" s="117">
         <f t="shared" si="49"/>
         <v>3708</v>
       </c>
-      <c r="E129" s="124">
+      <c r="E129" s="118">
         <f t="shared" si="50"/>
         <v>2500</v>
       </c>
-      <c r="F129" s="123">
+      <c r="F129" s="117">
         <f t="shared" si="51"/>
         <v>654.35294117647061</v>
       </c>
@@ -4824,13 +4825,13 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="119"/>
+      <c r="A130" s="122"/>
       <c r="B130" s="44"/>
       <c r="G130" s="51"/>
       <c r="H130" s="51"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="119"/>
+      <c r="A131" s="122"/>
       <c r="B131" s="44"/>
       <c r="C131" s="36" t="s">
         <v>35</v>
@@ -4846,7 +4847,7 @@
       <c r="H131" s="55"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="119"/>
+      <c r="A132" s="122"/>
       <c r="B132" s="44"/>
       <c r="C132" s="15"/>
       <c r="D132" s="15">
@@ -4871,7 +4872,7 @@
       <c r="H133" s="55"/>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="120" t="s">
+      <c r="A134" s="126" t="s">
         <v>108</v>
       </c>
       <c r="B134" s="60"/>
@@ -4889,7 +4890,7 @@
       <c r="H134" s="55"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="120"/>
+      <c r="A135" s="126"/>
       <c r="B135" s="60"/>
       <c r="C135" s="43" t="e">
         <f t="shared" ref="C135:C138" si="52">(F135/(D135+F135))*100</f>
@@ -4905,7 +4906,7 @@
       <c r="H135" s="55"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="120"/>
+      <c r="A136" s="126"/>
       <c r="B136" s="60"/>
       <c r="C136" s="43" t="e">
         <f t="shared" si="52"/>
@@ -4921,7 +4922,7 @@
       <c r="H136" s="55"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="120"/>
+      <c r="A137" s="126"/>
       <c r="B137" s="60"/>
       <c r="C137" s="43" t="e">
         <f t="shared" si="52"/>
@@ -4937,7 +4938,7 @@
       <c r="H137" s="55"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="120"/>
+      <c r="A138" s="126"/>
       <c r="B138" s="60"/>
       <c r="C138" s="43" t="e">
         <f t="shared" si="52"/>
@@ -4963,7 +4964,7 @@
       <c r="H139" s="55"/>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="120" t="s">
+      <c r="A140" s="126" t="s">
         <v>98</v>
       </c>
       <c r="B140" s="45">
@@ -4987,7 +4988,7 @@
       <c r="H140" s="55"/>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="120"/>
+      <c r="A141" s="126"/>
       <c r="B141" s="45">
         <v>1</v>
       </c>
@@ -5013,7 +5014,7 @@
       <c r="H142" s="51"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="119" t="s">
+      <c r="A143" s="122" t="s">
         <v>96</v>
       </c>
       <c r="B143" s="44"/>
@@ -5033,20 +5034,20 @@
       <c r="H143" s="51"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="119"/>
+      <c r="A144" s="122"/>
       <c r="B144" s="44"/>
-      <c r="C144" s="125">
+      <c r="C144" s="119">
         <v>0.1</v>
       </c>
-      <c r="D144" s="126">
+      <c r="D144" s="120">
         <f>E144*$D$150</f>
         <v>3313.7499999999995</v>
       </c>
-      <c r="E144" s="127">
+      <c r="E144" s="121">
         <f>$C$2</f>
         <v>2500</v>
       </c>
-      <c r="F144" s="126">
+      <c r="F144" s="120">
         <f>(D144*C144)/(100-C144)</f>
         <v>3.3170670670670668</v>
       </c>
@@ -5054,20 +5055,20 @@
       <c r="H144" s="50"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="119"/>
+      <c r="A145" s="122"/>
       <c r="B145" s="44"/>
-      <c r="C145" s="125">
+      <c r="C145" s="119">
         <v>0.35</v>
       </c>
-      <c r="D145" s="126">
+      <c r="D145" s="120">
         <f t="shared" ref="D145:D148" si="55">E145*$D$150</f>
         <v>3313.7499999999995</v>
       </c>
-      <c r="E145" s="127">
+      <c r="E145" s="121">
         <f t="shared" ref="E145:E148" si="56">$C$2</f>
         <v>2500</v>
       </c>
-      <c r="F145" s="126">
+      <c r="F145" s="120">
         <f t="shared" ref="F145:F148" si="57">(D145*C145)/(100-C145)</f>
         <v>11.638861013547412</v>
       </c>
@@ -5075,7 +5076,7 @@
       <c r="H145" s="50"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="119"/>
+      <c r="A146" s="122"/>
       <c r="B146" s="44"/>
       <c r="C146" s="86">
         <v>1.22</v>
@@ -5096,7 +5097,7 @@
       <c r="H146" s="50"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="119"/>
+      <c r="A147" s="122"/>
       <c r="B147" s="44"/>
       <c r="C147" s="86">
         <v>4.28</v>
@@ -5117,20 +5118,20 @@
       <c r="H147" s="50"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="119"/>
+      <c r="A148" s="122"/>
       <c r="B148" s="44"/>
-      <c r="C148" s="122">
+      <c r="C148" s="116">
         <v>15</v>
       </c>
-      <c r="D148" s="123">
+      <c r="D148" s="117">
         <f t="shared" si="55"/>
         <v>3313.7499999999995</v>
       </c>
-      <c r="E148" s="124">
+      <c r="E148" s="118">
         <f t="shared" si="56"/>
         <v>2500</v>
       </c>
-      <c r="F148" s="123">
+      <c r="F148" s="117">
         <f t="shared" si="57"/>
         <v>584.77941176470574</v>
       </c>
@@ -5138,13 +5139,13 @@
       <c r="H148" s="50"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="119"/>
+      <c r="A149" s="122"/>
       <c r="B149" s="44"/>
       <c r="G149" s="51"/>
       <c r="H149" s="51"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="119"/>
+      <c r="A150" s="122"/>
       <c r="B150" s="44"/>
       <c r="C150" s="36" t="s">
         <v>35</v>
@@ -5160,7 +5161,7 @@
       <c r="H150" s="55"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="119"/>
+      <c r="A151" s="122"/>
       <c r="B151" s="44"/>
       <c r="C151" s="15"/>
       <c r="D151" s="15">
@@ -5179,7 +5180,7 @@
       <c r="H152" s="51"/>
     </row>
     <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="117" t="s">
+      <c r="A153" s="123" t="s">
         <v>108</v>
       </c>
       <c r="B153" s="58"/>
@@ -5195,7 +5196,7 @@
       <c r="H153" s="51"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="117"/>
+      <c r="A154" s="123"/>
       <c r="B154" s="58"/>
       <c r="C154" s="17" t="e">
         <f t="shared" ref="C154:C157" si="58">(F154/(D154+F154))*100</f>
@@ -5209,7 +5210,7 @@
       <c r="H154" s="51"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="117"/>
+      <c r="A155" s="123"/>
       <c r="B155" s="58"/>
       <c r="C155" s="17" t="e">
         <f t="shared" si="58"/>
@@ -5223,7 +5224,7 @@
       <c r="H155" s="51"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="117"/>
+      <c r="A156" s="123"/>
       <c r="B156" s="58"/>
       <c r="C156" s="17" t="e">
         <f t="shared" si="58"/>
@@ -5237,7 +5238,7 @@
       <c r="H156" s="51"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="117"/>
+      <c r="A157" s="123"/>
       <c r="B157" s="58"/>
       <c r="C157" s="17" t="e">
         <f t="shared" si="58"/>
@@ -5255,7 +5256,7 @@
       <c r="H158" s="51"/>
     </row>
     <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="117" t="s">
+      <c r="A159" s="123" t="s">
         <v>98</v>
       </c>
       <c r="B159" s="47">
@@ -5279,7 +5280,7 @@
       <c r="H159" s="51"/>
     </row>
     <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="117"/>
+      <c r="A160" s="123"/>
       <c r="B160" s="47">
         <v>4</v>
       </c>
@@ -5305,7 +5306,7 @@
       <c r="H161" s="51"/>
     </row>
     <row r="162" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="119" t="s">
+      <c r="A162" s="122" t="s">
         <v>96</v>
       </c>
       <c r="B162" s="44"/>
@@ -5325,7 +5326,7 @@
       <c r="Q162" s="29"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="119"/>
+      <c r="A163" s="122"/>
       <c r="B163" s="44"/>
       <c r="C163" s="14">
         <v>0.1</v>
@@ -5346,7 +5347,7 @@
       <c r="H163" s="17"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="119"/>
+      <c r="A164" s="122"/>
       <c r="B164" s="44"/>
       <c r="C164" s="14">
         <v>0.6</v>
@@ -5367,7 +5368,7 @@
       <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="119"/>
+      <c r="A165" s="122"/>
       <c r="B165" s="44"/>
       <c r="C165" s="14">
         <v>1</v>
@@ -5388,7 +5389,7 @@
       <c r="H165" s="17"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="119"/>
+      <c r="A166" s="122"/>
       <c r="B166" s="44"/>
       <c r="C166" s="14">
         <v>2</v>
@@ -5409,7 +5410,7 @@
       <c r="H166" s="17"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="119"/>
+      <c r="A167" s="122"/>
       <c r="B167" s="44"/>
       <c r="C167" s="104">
         <v>5</v>
@@ -5430,7 +5431,7 @@
       <c r="H167" s="17"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="119"/>
+      <c r="A168" s="122"/>
       <c r="B168" s="62"/>
       <c r="C168" s="14">
         <v>10</v>
@@ -5451,7 +5452,7 @@
       <c r="H168" s="17"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="119"/>
+      <c r="A169" s="122"/>
       <c r="B169" s="62"/>
       <c r="C169" s="14">
         <v>15</v>
@@ -5472,11 +5473,11 @@
       <c r="H169" s="17"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A170" s="119"/>
+      <c r="A170" s="122"/>
       <c r="B170" s="44"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A171" s="119"/>
+      <c r="A171" s="122"/>
       <c r="B171" s="44"/>
       <c r="C171" s="36" t="s">
         <v>35</v>
@@ -5492,7 +5493,7 @@
       <c r="H171" s="15"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A172" s="119"/>
+      <c r="A172" s="122"/>
       <c r="B172" s="44"/>
       <c r="C172" s="15"/>
       <c r="D172" s="15">
@@ -5507,7 +5508,7 @@
       <c r="H172" s="15"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A174" s="116" t="s">
+      <c r="A174" s="125" t="s">
         <v>108</v>
       </c>
       <c r="B174" s="87">
@@ -5529,7 +5530,7 @@
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A175" s="116"/>
+      <c r="A175" s="125"/>
       <c r="B175" s="87"/>
       <c r="C175" s="42" t="e">
         <f t="shared" ref="C175" si="66">(F175/(D175+F175))*100</f>
@@ -5543,7 +5544,7 @@
       <c r="F175" s="33"/>
     </row>
     <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="116"/>
+      <c r="A176" s="125"/>
       <c r="B176" s="60"/>
       <c r="C176" s="42" t="e">
         <f>(F176/(D176+F176))*100</f>
@@ -5557,7 +5558,7 @@
       <c r="F176" s="33"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="116"/>
+      <c r="A177" s="125"/>
       <c r="B177" s="60"/>
       <c r="C177" s="42" t="e">
         <f t="shared" ref="C177:C180" si="67">(F177/(D177+F177))*100</f>
@@ -5571,7 +5572,7 @@
       <c r="F177" s="33"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="116"/>
+      <c r="A178" s="125"/>
       <c r="B178" s="60"/>
       <c r="C178" s="42" t="e">
         <f t="shared" si="67"/>
@@ -5585,7 +5586,7 @@
       <c r="F178" s="33"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="116"/>
+      <c r="A179" s="125"/>
       <c r="B179" s="60"/>
       <c r="C179" s="42" t="e">
         <f t="shared" si="67"/>
@@ -5599,7 +5600,7 @@
       <c r="F179" s="33"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="116"/>
+      <c r="A180" s="125"/>
       <c r="B180" s="60"/>
       <c r="C180" s="42" t="e">
         <f t="shared" si="67"/>
@@ -5613,7 +5614,7 @@
       <c r="F180" s="33"/>
     </row>
     <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="116" t="s">
+      <c r="A182" s="125" t="s">
         <v>98</v>
       </c>
       <c r="B182" s="45">
@@ -5638,7 +5639,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="116"/>
+      <c r="A183" s="125"/>
       <c r="B183" s="45">
         <v>7</v>
       </c>
@@ -5661,7 +5662,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="116"/>
+      <c r="A184" s="125"/>
       <c r="B184" s="45">
         <v>8</v>
       </c>
@@ -5684,7 +5685,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="116"/>
+      <c r="A185" s="125"/>
       <c r="B185" s="45">
         <v>9</v>
       </c>
@@ -5707,7 +5708,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="116"/>
+      <c r="A186" s="125"/>
       <c r="B186" s="45">
         <v>10</v>
       </c>
@@ -5732,13 +5733,6 @@
     <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="A58:A67"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A38:A44"/>
     <mergeCell ref="A174:A180"/>
     <mergeCell ref="A182:A186"/>
     <mergeCell ref="A46:A50"/>
@@ -5755,6 +5749,13 @@
     <mergeCell ref="A153:A157"/>
     <mergeCell ref="A70:A76"/>
     <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A38:A44"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
@@ -5764,4 +5765,16 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB854B7-C5D2-4F5E-B004-6A219FEFA3DE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>